--- a/Examples/DcPowerSystem/2Bus/TwoBusGfdBuck.xlsx
+++ b/Examples/DcPowerSystem/2Bus/TwoBusGfdBuck.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\DcPowerSystem\2Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FA0F5E-E42B-487F-BDF0-CC4B1FACC13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A8481D-AEEE-4B89-AC74-6FA6C0D92288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -903,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1068,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1132,7 +1132,7 @@
         <v>36</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -1140,7 +1140,7 @@
         <v>37</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -1148,7 +1148,7 @@
         <v>38</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
